--- a/for data acquisition and analysis/VZ_sop/0221 [User] 裕度模板.xlsx
+++ b/for data acquisition and analysis/VZ_sop/0221 [User] 裕度模板.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\report\2024\0215-0222\critical number 模板\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\git\tool\for data acquisition and analysis\VZ_sop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18A7ABF7-22A5-4167-9A61-3A02B8BF0B65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FD48025-9C4F-4621-8F73-2B64D4E71410}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="659" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="659" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="總整理 (實驗 vs 分析)" sheetId="11" r:id="rId1"/>
@@ -38287,8 +38287,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97406BF1-E7EA-4B67-BA41-691D3B8B9B1F}">
   <dimension ref="A2:AC70"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Z19" sqref="Z19"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -40336,8 +40336,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD89E756-36A8-4B74-B461-2F7242D5EAC5}">
   <dimension ref="B2:P50"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -47315,7 +47315,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96DD2E0D-EF23-448C-A1A2-84C963519A9D}">
   <dimension ref="A2:R16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M4" sqref="M4:Q11"/>
     </sheetView>
   </sheetViews>
